--- a/Parameters/Invalid_data/Temperature.xlsx
+++ b/Parameters/Invalid_data/Temperature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">OrgID</t>
   </si>
@@ -23,79 +23,85 @@
     <t xml:space="preserve">AU_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">ben_use_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonLocType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wqstd_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollu_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChrName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActMediaName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActMediaSubName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleFractName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResStatusName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultBasesName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultTBaseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActStartD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActStartT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result4IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultOp4IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultUnitName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultlabComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultMeasQualDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultMeasQualID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpawnCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">FishCode</t>
   </si>
   <si>
-    <t xml:space="preserve">SpawnCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterTypeC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterBodyC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ben_use_co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUC4_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonLocType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wqstd_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pollu_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChrName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pollutant_DEQ WQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActMediaName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActMediaSubName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResStatusName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultBasesName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultTBaseName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result4IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultOp4IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultUnitName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultMeasQualDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FishUse_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawn_dates</t>
+    <t xml:space="preserve">SpawnStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpawnEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWRD_Basin</t>
   </si>
   <si>
     <t xml:space="preserve">per99</t>
@@ -560,6 +566,12 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
